--- a/medicine/Enfance/Le_Mauvais_Génie/Le_Mauvais_Génie.xlsx
+++ b/medicine/Enfance/Le_Mauvais_Génie/Le_Mauvais_Génie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Mauvais_G%C3%A9nie</t>
+          <t>Le_Mauvais_Génie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Mauvais Génie est un roman de la comtesse de Ségur paru en 1867. C'est une œuvre moralisatrice et humoristique à la fois.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Mauvais_G%C3%A9nie</t>
+          <t>Le_Mauvais_Génie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Julien est un garçon de ferme chargé de garder les dindons des fermiers Bonard. Plusieurs de ces dindons disparaissent, ce qui le met dans l'embarras. Le voleur s'avère être Frédéric, le fils des fermiers, influencé par le méchant Alcide, fils de cafetier. Ces deux larrons les vendaient très cher à M. Georgey, un industriel anglais excentrique et à l'appétit d'ogre. Georgey se prend d'amitié pour Julien.
 Alcide de nouveau exerce une mauvaise influence sur Frédéric et le pousse à fracturer une armoire chez les parents de Frédéric, pour voler l'argent qui est dedans. Ils enivrent Georgey et Julien, puis ils volent le porte-monnaie de Georgey. Les époux Bonard portent plainte lorsqu’ils constatent le vol, ne se doutant pas que leur propre fils est le coupable.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Mauvais_G%C3%A9nie</t>
+          <t>Le_Mauvais_Génie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Illustrateurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman est illustré à l'origine par Émile Bayard, puis notamment par André Pécoud, Jobbé-Duval, Danièle Bour (couverture).
 </t>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Mauvais_G%C3%A9nie</t>
+          <t>Le_Mauvais_Génie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Disque</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un disque a été édité en 1975 dans la collection Le Petit Ménestrel, d'après ce roman de la comtesse de Ségur, avec François le bossu. Les récits sont lus par Claude Jade et Marie-Christine Barrault.
 </t>
